--- a/routine.xlsx
+++ b/routine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Code</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Sat</t>
   </si>
   <si>
-    <t xml:space="preserve">08:30:AM - 11:00:AM</t>
+    <t xml:space="preserve">07:30:PM - 11:00:PM</t>
   </si>
   <si>
     <t>AbHn</t>
@@ -72,7 +72,7 @@
     <t xml:space="preserve">EEE 2113</t>
   </si>
   <si>
-    <t xml:space="preserve">Electrical Circuits</t>
+    <t xml:space="preserve">Electrical Circuits AA</t>
   </si>
   <si>
     <t>A</t>
@@ -84,7 +84,7 @@
     <t>Wed</t>
   </si>
   <si>
-    <t xml:space="preserve">08:30:AM - 09:50:AM</t>
+    <t xml:space="preserve">06:00:PM - 06:50:PM</t>
   </si>
   <si>
     <t xml:space="preserve">EEE 2123</t>
@@ -99,10 +99,27 @@
     <t xml:space="preserve">12:31:PM - 01:50:PM</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Electronics </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>BB</t>
+    </r>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t xml:space="preserve">03:11:PM - 04:30:PM</t>
+    <t xml:space="preserve">06:51:PM - 09:50:PM</t>
   </si>
   <si>
     <t xml:space="preserve">EEE 2124</t>
@@ -131,12 +148,10 @@
     <font>
       <b/>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -164,16 +179,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -835,10 +850,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>423</v>
@@ -853,10 +868,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>16</v>
@@ -864,16 +879,16 @@
     </row>
     <row r="6" ht="60">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
@@ -881,7 +896,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">

--- a/routine.xlsx
+++ b/routine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Code</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Sat</t>
   </si>
   <si>
-    <t xml:space="preserve">07:30:PM - 11:00:PM</t>
+    <t xml:space="preserve">08:30:AM - 11:00:AM</t>
   </si>
   <si>
     <t>AbHn</t>
@@ -72,7 +72,7 @@
     <t xml:space="preserve">EEE 2113</t>
   </si>
   <si>
-    <t xml:space="preserve">Electrical Circuits AA</t>
+    <t xml:space="preserve">Electrical Circuits</t>
   </si>
   <si>
     <t>A</t>
@@ -84,7 +84,7 @@
     <t>Wed</t>
   </si>
   <si>
-    <t xml:space="preserve">06:00:PM - 06:50:PM</t>
+    <t xml:space="preserve">08:30:AM - 09:50:AM</t>
   </si>
   <si>
     <t xml:space="preserve">EEE 2123</t>
@@ -99,27 +99,10 @@
     <t xml:space="preserve">12:31:PM - 01:50:PM</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">Electronics </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>BB</t>
-    </r>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
-    <t xml:space="preserve">06:51:PM - 09:50:PM</t>
+    <t xml:space="preserve">03:11:PM - 04:30:PM</t>
   </si>
   <si>
     <t xml:space="preserve">EEE 2124</t>
@@ -148,10 +131,12 @@
     <font>
       <b/>
       <sz val="12.000000"/>
+      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="12.000000"/>
+      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -179,16 +164,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -850,10 +835,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>423</v>
@@ -868,10 +853,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>16</v>
@@ -879,16 +864,16 @@
     </row>
     <row r="6" ht="60">
       <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
@@ -896,7 +881,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">

--- a/routine.xlsx
+++ b/routine.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Code</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Sat</t>
   </si>
   <si>
-    <t xml:space="preserve">08:30:AM - 11:00:AM</t>
+    <t xml:space="preserve">07:30:PM - 11:00:PM</t>
   </si>
   <si>
     <t>AbHn</t>
@@ -72,7 +72,7 @@
     <t xml:space="preserve">EEE 2113</t>
   </si>
   <si>
-    <t xml:space="preserve">Electrical Circuits</t>
+    <t xml:space="preserve">Electrical Circuits AA</t>
   </si>
   <si>
     <t>A</t>
@@ -84,7 +84,7 @@
     <t>Wed</t>
   </si>
   <si>
-    <t xml:space="preserve">08:30:AM - 09:50:AM</t>
+    <t xml:space="preserve">06:00:PM - 06:50:PM</t>
   </si>
   <si>
     <t xml:space="preserve">EEE 2123</t>
@@ -99,10 +99,27 @@
     <t xml:space="preserve">12:31:PM - 01:50:PM</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t xml:space="preserve">Electronics </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Times New Roman"/>
+      </rPr>
+      <t>BB</t>
+    </r>
+  </si>
+  <si>
     <t>F</t>
   </si>
   <si>
-    <t xml:space="preserve">03:11:PM - 04:30:PM</t>
+    <t xml:space="preserve">06:51:PM - 11:50:PM</t>
   </si>
   <si>
     <t xml:space="preserve">EEE 2124</t>
@@ -131,12 +148,10 @@
     <font>
       <b/>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="12.000000"/>
-      <color indexed="64"/>
       <name val="Times New Roman"/>
     </font>
   </fonts>
@@ -164,16 +179,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -835,10 +850,10 @@
         <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>423</v>
@@ -853,10 +868,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>16</v>
@@ -864,16 +879,16 @@
     </row>
     <row r="6" ht="60">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
@@ -881,7 +896,7 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2" t="s">
